--- a/_apidocs/exclusions-api/v1/exclusion-sample-csv.xlsx
+++ b/_apidocs/exclusions-api/v1/exclusion-sample-csv.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhargavBoppana\IdeaProjects\open-gsa-redesign1\_apidocs\exclusions-api\v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761AA84-8A93-491F-9215-82A5C68D5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="350" windowWidth="18660" windowHeight="7060"/>
+    <workbookView xWindow="4092" yWindow="2340" windowWidth="16584" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclusions" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>classificationType</t>
   </si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>ueiSAM</t>
-  </si>
-  <si>
-    <t>ueiDUNS</t>
   </si>
   <si>
     <t>entityEFTIndicator</t>
@@ -118,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -633,6 +636,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -680,7 +686,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,9 +719,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,6 +771,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,22 +963,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,46 +1043,40 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
